--- a/Cereal Sugar Statistics.xlsx
+++ b/Cereal Sugar Statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6362f86e193f0e7/Documents/Jobs-Resume/Projects/Statistics-Cereal Sugar Content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{2D7FF00A-F121-4687-A34A-5933E8AAB611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E43E7BBC-9599-4F8A-907F-2B24E2631909}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{2D7FF00A-F121-4687-A34A-5933E8AAB611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F161B9F5-F543-4ACE-8C93-FA9F1AF7FA3B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cereal" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,14 @@
     <sheet name="Distribution" sheetId="3" r:id="rId3"/>
     <sheet name="Central Tendency" sheetId="4" r:id="rId4"/>
     <sheet name="Variabilitiy" sheetId="5" r:id="rId5"/>
+    <sheet name="Interpretations" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cereal!$B$1:$Q$75</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">sugars!$A$2:$A$75</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">sugars!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">sugars!$B$2:$B$75</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">sugars!$A$2:$A$75</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">sugars!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">sugars!$B$2:$B$75</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">sugars!$A$2:$A$75</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">sugars!$B$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">sugars!$B$2:$B$75</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">sugars!$B$2:$B$75</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">sugars!$B$2:$B$75</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">sugars!$A$2:$A$75</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">sugars!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">sugars!$B$2:$B$75</definedName>
     <definedName name="G">sugars!$B$2:$B$23</definedName>
     <definedName name="K">sugars!$B$24:$B$46</definedName>
     <definedName name="mfr">sugars!$A$2:$A$75</definedName>
@@ -42,13 +37,13 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="158">
   <si>
     <t>name</t>
   </si>
@@ -453,13 +448,82 @@
   </si>
   <si>
     <t>By Manufacturer</t>
+  </si>
+  <si>
+    <t>The purpose of this project was to show a simple example of how descriptive statistics can be handled in Excel.  The data was sourced from Kaggle:  https://www.kaggle.com/datasets/crawford/80-cereals?resource=download.</t>
+  </si>
+  <si>
+    <t>The three types of descriptive statistics are shown: 1) Distribution, 2) Central Tendency, and 3) Variability.  The interpretations for each of these are summarized below.</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Distribution represents the frequency of each value in the data.  So, in this example, the grams of sugar per serving were grouped into five categories ranging from 0-2 grams to 12-15 grams.</t>
+  </si>
+  <si>
+    <t>Cereals with 3-5 grams of sugar per serving represented the highest frequency and cereals with 0-2 grams of sugar per serving had the lowest frequency.  So out of the 74 cereals observed,</t>
+  </si>
+  <si>
+    <t>18 or 24% of them had 3-5 grams of sugar.  Nearly 41% had over 9 grams of sugar per serving.</t>
+  </si>
+  <si>
+    <t>Central Tendency</t>
+  </si>
+  <si>
+    <t>Central Tendency is used to represent the middle of the values.  The mean is the average of all the values.  Caution should be used, as mean is sensitive to outliers.  The mean for all cereals was just</t>
+  </si>
+  <si>
+    <t>above 7 grams of sugar per serving.  The data was also broken down by manufacturer with Nabisco having the lowest mean at 2.2 grams of sugar per serving while Post had the highest observed mean at 8.78 grams of sugar per serving.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The median shows the exact middle value in a sorted set of data (if an even number of data points the two middle points are averaged).  Median is not as affected by outliers as mean is.  Post also had the </t>
+  </si>
+  <si>
+    <t>highest median at 10 grams of sugar per serving, while Nabisco has the lowest at 0 grams of sugar.  Interestingly, Nabisco shows the highest amount of skewness, and in fact, looking at the data, we</t>
+  </si>
+  <si>
+    <t>see that Nabisco only has 5 cereals represented and 3 of them have 0 grams of sugar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The mode shows the most frequent value.  Post again shows the highest value at 5 grams of sugar.  </t>
+  </si>
+  <si>
+    <t>The skew represents the asymmetry of a distribution around its mean.  If the skew is 0, then the mean and median are the same.  A right or positive skew indicates the mean is greater than the median.  A left or negative</t>
+  </si>
+  <si>
+    <t>skew indicates the mean is less than the median.  Looking at General Mills, for example, we see that the skew is -0.28, and in fact, the mean is 7.95 while the median is 8.50.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The range shows the spread from the lowest or minimum value to the highest or maximum value.  The interquartile range represents the middle 50% of the values.  It is calculated by subtracting the first quartile </t>
+  </si>
+  <si>
+    <t>from the third quartile.  When looking at a box plot, it is the values that make up the box.  Looking at the overall values, the minimum value is 0 grams of sugar and the maximum is 15 grams of sugar.</t>
+  </si>
+  <si>
+    <t>The box in the plot ranges from 3 grams of sugar to 11 grams of sugar, so the interquartile range is 8.  When the box plot is broken down by manufacturer, it becomes clear that the values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vary significantly between manufacturers.  </t>
+  </si>
+  <si>
+    <t>The standard deviation measures, on average, how far each value lies from the mean.  So the greater the standard deviation, the wider a distribution is (and vice versa).  Quaker Oats actually</t>
+  </si>
+  <si>
+    <t>has the highest standard deviation and Nabisco has the least.  Nabisco's positive skewness can be seen in the box plot with the 'x' indicating the mean.  The coefficient of variation</t>
+  </si>
+  <si>
+    <t>measures the standard deviation relative to the mean.  It is helpful in comparing variables with significantly different means.  While General Mills, Kelloggs, Post, and Ralston Purina difference from the mean is similar,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we can see that Quaker Oats and especially Nabisco differ, on average, by a much greater percentage.  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -604,6 +668,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -971,7 +1043,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1000,11 +1072,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1084,7 +1153,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Cereal Sugar Statistics b.xlsx]Distribution!PivotTable1</c:name>
+    <c:name>[Cereal Sugar Statistics.xlsx]Distribution!PivotTable1</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -1584,7 +1653,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1652,10 +1721,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1665,7 +1734,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{2EE247E9-0B7A-4801-AB20-2B4CC0B79F90}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.7</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>sugar_grams</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3495,7 +3564,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3000375" y="571500"/>
+              <a:off x="3657600" y="571500"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3573,7 +3642,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6476999" y="4190999"/>
+              <a:off x="6705599" y="4190999"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3605,6 +3674,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4335,9 +4408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C75"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8328,13 +8399,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:B75"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -8350,7 +8423,7 @@
         <v>27</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8358,7 +8431,7 @@
         <v>27</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8366,7 +8439,7 @@
         <v>27</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -8374,7 +8447,7 @@
         <v>27</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -8382,7 +8455,7 @@
         <v>27</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -8390,7 +8463,7 @@
         <v>27</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -8398,7 +8471,7 @@
         <v>27</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -8406,7 +8479,7 @@
         <v>27</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -8414,7 +8487,7 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -8422,7 +8495,7 @@
         <v>27</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -8430,7 +8503,7 @@
         <v>27</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -8438,7 +8511,7 @@
         <v>27</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -8446,7 +8519,7 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -8462,7 +8535,7 @@
         <v>27</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -8470,7 +8543,7 @@
         <v>27</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -8478,7 +8551,7 @@
         <v>27</v>
       </c>
       <c r="B18">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -8486,7 +8559,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -8494,7 +8567,7 @@
         <v>27</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -8502,7 +8575,7 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -8510,7 +8583,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -8518,7 +8591,7 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -8526,7 +8599,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -8534,7 +8607,7 @@
         <v>22</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -8542,7 +8615,7 @@
         <v>22</v>
       </c>
       <c r="B26">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -8550,7 +8623,7 @@
         <v>22</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -8558,7 +8631,7 @@
         <v>22</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -8566,7 +8639,7 @@
         <v>22</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -8582,7 +8655,7 @@
         <v>22</v>
       </c>
       <c r="B31">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -8590,7 +8663,7 @@
         <v>22</v>
       </c>
       <c r="B32">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -8598,7 +8671,7 @@
         <v>22</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -8606,7 +8679,7 @@
         <v>22</v>
       </c>
       <c r="B34">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -8614,7 +8687,7 @@
         <v>22</v>
       </c>
       <c r="B35">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -8622,7 +8695,7 @@
         <v>22</v>
       </c>
       <c r="B36">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -8630,7 +8703,7 @@
         <v>22</v>
       </c>
       <c r="B37">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -8646,7 +8719,7 @@
         <v>22</v>
       </c>
       <c r="B39">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -8654,7 +8727,7 @@
         <v>22</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -8662,7 +8735,7 @@
         <v>22</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -8678,7 +8751,7 @@
         <v>22</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -8686,7 +8759,7 @@
         <v>22</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -8694,7 +8767,7 @@
         <v>22</v>
       </c>
       <c r="B45">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -8702,7 +8775,7 @@
         <v>22</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -8710,7 +8783,7 @@
         <v>17</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -8734,7 +8807,7 @@
         <v>17</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -8742,7 +8815,7 @@
         <v>17</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -8750,7 +8823,7 @@
         <v>32</v>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -8758,7 +8831,7 @@
         <v>32</v>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -8766,7 +8839,7 @@
         <v>32</v>
       </c>
       <c r="B54">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -8774,7 +8847,7 @@
         <v>32</v>
       </c>
       <c r="B55">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -8782,7 +8855,7 @@
         <v>32</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -8790,7 +8863,7 @@
         <v>32</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -8798,7 +8871,7 @@
         <v>32</v>
       </c>
       <c r="B58">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -8806,7 +8879,7 @@
         <v>32</v>
       </c>
       <c r="B59">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -8814,7 +8887,7 @@
         <v>32</v>
       </c>
       <c r="B60">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -8822,7 +8895,7 @@
         <v>20</v>
       </c>
       <c r="B61">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -8830,7 +8903,7 @@
         <v>20</v>
       </c>
       <c r="B62">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -8838,7 +8911,7 @@
         <v>20</v>
       </c>
       <c r="B63">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -8854,7 +8927,7 @@
         <v>20</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -8862,7 +8935,7 @@
         <v>20</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -8870,7 +8943,7 @@
         <v>20</v>
       </c>
       <c r="B67">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -8878,7 +8951,7 @@
         <v>25</v>
       </c>
       <c r="B68">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -8886,7 +8959,7 @@
         <v>25</v>
       </c>
       <c r="B69">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -8910,7 +8983,7 @@
         <v>25</v>
       </c>
       <c r="B72">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -8918,7 +8991,7 @@
         <v>25</v>
       </c>
       <c r="B73">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -8926,7 +8999,7 @@
         <v>25</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -8934,12 +9007,13 @@
         <v>25</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B75">
     <sortCondition ref="A2:A75"/>
+    <sortCondition ref="B2:B75"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8949,8 +9023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:D21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9069,7 +9143,7 @@
   <dimension ref="A2:G26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9105,7 +9179,7 @@
       <c r="A6" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <f>MEDIAN(sugar_grams)</f>
         <v>7</v>
       </c>
@@ -9114,7 +9188,7 @@
       <c r="A7" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="9">
         <f>_xlfn.MODE.SNGL(sugar_grams)</f>
         <v>3</v>
       </c>
@@ -9125,11 +9199,11 @@
       </c>
       <c r="B8" s="9">
         <f>SKEW(sugar_grams)</f>
-        <v>1.214622130333432E-2</v>
+        <v>1.2146221303334225E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="5" t="s">
         <v>134</v>
       </c>
     </row>
@@ -9144,8 +9218,8 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
       <c r="B14" s="11" t="s">
         <v>27</v>
       </c>
@@ -9170,27 +9244,27 @@
         <v>110</v>
       </c>
       <c r="B15" s="9">
-        <f>AVERAGEIFS(sugar_grams,mfr,B14)</f>
+        <f t="shared" ref="B15:G15" si="0">AVERAGEIFS(sugar_grams,mfr,B14)</f>
         <v>7.9545454545454541</v>
       </c>
       <c r="C15" s="9">
-        <f>AVERAGEIFS(sugar_grams,mfr,C14)</f>
+        <f t="shared" si="0"/>
         <v>7.5652173913043477</v>
       </c>
       <c r="D15" s="9">
-        <f>AVERAGEIFS(sugar_grams,mfr,D14)</f>
+        <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="E15" s="9">
-        <f>AVERAGEIFS(sugar_grams,mfr,E14)</f>
+        <f t="shared" si="0"/>
         <v>8.7777777777777786</v>
       </c>
       <c r="F15" s="9">
-        <f>AVERAGEIFS(sugar_grams,mfr,F14)</f>
+        <f t="shared" si="0"/>
         <v>6.1428571428571432</v>
       </c>
       <c r="G15" s="9">
-        <f>AVERAGEIFS(sugar_grams,mfr,G14)</f>
+        <f t="shared" si="0"/>
         <v>6.125</v>
       </c>
     </row>
@@ -9198,27 +9272,27 @@
       <c r="A16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="9">
         <f>MEDIAN(G)</f>
         <v>8.5</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="9">
         <f>MEDIAN(K)</f>
         <v>7</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="9">
         <f>MEDIAN(N)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="9">
         <f>MEDIAN(P)</f>
         <v>10</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="9">
         <f>MEDIAN(Q)</f>
         <v>6</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="9">
         <f>MEDIAN(RR)</f>
         <v>5.5</v>
       </c>
@@ -9227,27 +9301,27 @@
       <c r="A17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="9">
         <f>_xlfn.MODE.SNGL(G)</f>
         <v>3</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="9">
         <f>_xlfn.MODE.SNGL(K)</f>
         <v>3</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="9">
         <f>_xlfn.MODE.SNGL(N)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="9">
         <f>_xlfn.MODE.SNGL(P)</f>
         <v>5</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="9">
         <f>_xlfn.MODE.SNGL(Q)</f>
-        <v>6</v>
-      </c>
-      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
         <f>_xlfn.MODE.SNGL(RR)</f>
         <v>3</v>
       </c>
@@ -9258,27 +9332,27 @@
       </c>
       <c r="B18" s="9">
         <f>SKEW(G)</f>
-        <v>-0.27600840616114519</v>
+        <v>-0.27600840616114553</v>
       </c>
       <c r="C18" s="9">
         <f>SKEW(K)</f>
-        <v>6.7259129355637479E-2</v>
+        <v>6.7259129355637381E-2</v>
       </c>
       <c r="D18" s="9">
         <f>SKEW(N)</f>
-        <v>0.67013124198376173</v>
+        <v>0.67013124198376151</v>
       </c>
       <c r="E18" s="9">
         <f>SKEW(P)</f>
-        <v>3.3202482758516234E-2</v>
+        <v>3.3202482758516311E-2</v>
       </c>
       <c r="F18" s="9">
         <f>SKEW(Q)</f>
-        <v>-0.30345268641629353</v>
+        <v>-0.30345268641629347</v>
       </c>
       <c r="G18" s="9">
         <f>SKEW(RR)</f>
-        <v>0.44484993193521927</v>
+        <v>0.44484993193521943</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -9446,27 +9520,27 @@
         <v>124</v>
       </c>
       <c r="C25" s="8">
-        <f>COUNTIFS(mfr,C24)</f>
+        <f t="shared" ref="C25:H25" si="0">COUNTIFS(mfr,C24)</f>
         <v>22</v>
       </c>
       <c r="D25" s="8">
-        <f>COUNTIFS(mfr,D24)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="E25" s="8">
-        <f>COUNTIFS(mfr,E24)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F25" s="8">
-        <f>COUNTIFS(mfr,F24)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G25" s="8">
-        <f>COUNTIFS(mfr,G24)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H25" s="8">
-        <f>COUNTIFS(mfr,H24)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -9475,27 +9549,27 @@
         <v>122</v>
       </c>
       <c r="C26" s="8">
-        <f>_xlfn.MAXIFS(sugar_grams,mfr,C24)-_xlfn.MINIFS(sugar_grams,mfr,C24)</f>
+        <f t="shared" ref="C26:H26" si="1">_xlfn.MAXIFS(sugar_grams,mfr,C24)-_xlfn.MINIFS(sugar_grams,mfr,C24)</f>
         <v>13</v>
       </c>
       <c r="D26" s="8">
-        <f>_xlfn.MAXIFS(sugar_grams,mfr,D24)-_xlfn.MINIFS(sugar_grams,mfr,D24)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="E26" s="8">
-        <f>_xlfn.MAXIFS(sugar_grams,mfr,E24)-_xlfn.MINIFS(sugar_grams,mfr,E24)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F26" s="8">
-        <f>_xlfn.MAXIFS(sugar_grams,mfr,F24)-_xlfn.MINIFS(sugar_grams,mfr,F24)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="G26" s="8">
-        <f>_xlfn.MAXIFS(sugar_grams,mfr,G24)-_xlfn.MINIFS(sugar_grams,mfr,G24)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="H26" s="8">
-        <f>_xlfn.MAXIFS(sugar_grams,mfr,H24)-_xlfn.MINIFS(sugar_grams,mfr,H24)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -9625,4 +9699,137 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9F4FC2-4E0B-4E05-9A52-347BB5C44CC7}">
+  <dimension ref="A1:A31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>